--- a/table_papers.xlsx
+++ b/table_papers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tsx-my.sharepoint.com/personal/tonny_le_tatasteeleurope_com/Documents/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tonny/Documents/GitHub/master-thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="8_{AE598D2A-8195-45C7-B6D4-6A75EADC09CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA4DB68C-A053-4A83-9C05-0ABE676FFBCD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{260061CC-6FB9-4C44-BABF-B8E21977C4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B690BA8-28EC-491D-9F70-5A3B2A60CEB3}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29040" windowHeight="15840" xr2:uid="{2B690BA8-28EC-491D-9F70-5A3B2A60CEB3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -762,9 +762,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -802,7 +802,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -908,7 +908,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1050,7 +1050,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1060,23 +1060,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F737A7E-B2D9-460D-92AE-20CA2BAD4216}">
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="61.85546875" customWidth="1"/>
-    <col min="2" max="2" width="49.7109375" customWidth="1"/>
-    <col min="3" max="3" width="44.85546875" customWidth="1"/>
-    <col min="4" max="4" width="30.5703125" customWidth="1"/>
-    <col min="5" max="5" width="38.28515625" customWidth="1"/>
+    <col min="1" max="1" width="61.83203125" customWidth="1"/>
+    <col min="2" max="2" width="49.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.5" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="75.140625" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="75.1640625" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="395" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>16</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>31</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>45</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>57</v>
       </c>
@@ -1286,7 +1286,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
     </row>
-    <row r="9" spans="1:10" ht="360" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="320" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>64</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="395" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>73</v>
       </c>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="390" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="350" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>80</v>
       </c>
@@ -1365,7 +1365,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="360" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="288" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>88</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="224" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>96</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="380" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>104</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="405" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="350" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>112</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>120</v>
       </c>
